--- a/inst/extdata/Epireactions.xlsx
+++ b/inst/extdata/Epireactions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="371">
   <si>
     <t>#</t>
   </si>
@@ -774,61 +774,58 @@
     <t>R'-C=C-C-C=C-R—&gt;R'-C=C-C-C(ONO)-C(-NO2)-R</t>
   </si>
   <si>
-    <t>+O-2H-(CH2)2</t>
-  </si>
-  <si>
-    <t>-14.0520</t>
+    <t>+O-C-(CH2)5</t>
+  </si>
+  <si>
+    <t>-66.07513</t>
   </si>
   <si>
     <t>Distal end oxidative cleavage to aldehyde</t>
   </si>
   <si>
-    <t>R-HC=CH-C2H5 —&gt; R-CHO</t>
-  </si>
-  <si>
-    <t>+O-2H-(CH2)5</t>
-  </si>
-  <si>
-    <t>-56.0989</t>
-  </si>
-  <si>
-    <t>R-HC=CH-C5H11 —&gt; R-CHO</t>
-  </si>
-  <si>
-    <t>+O-2H-(CH2)8</t>
-  </si>
-  <si>
-    <t>-98.1459</t>
-  </si>
-  <si>
-    <t>R-HC=CH-C8H17 —&gt; R-CHO</t>
-  </si>
-  <si>
-    <t>+2O-2H-(CH2)2</t>
-  </si>
-  <si>
-    <t>+1.9429</t>
+    <t>R-HC=CH-CH2-CH=CH-C2H5—&gt;R-CHO</t>
+  </si>
+  <si>
+    <t>+O-C-(CH2)8</t>
+  </si>
+  <si>
+    <t>-108.11716</t>
+  </si>
+  <si>
+    <t>R-HC=CH-CH2-CH=CH-C5H11—&gt;R-CHO</t>
+  </si>
+  <si>
+    <t>+O-C-(CH2)11</t>
+  </si>
+  <si>
+    <t>R-HC=CH-CH2-CH=CH-C8H17—&gt;R-CHO</t>
+  </si>
+  <si>
+    <t>+2O-C-(CH2)5</t>
   </si>
   <si>
     <t>Distal end oxidative cleavage to carboxyl</t>
   </si>
   <si>
-    <t>R-HC=CH-C2H5 —&gt; R-COOH</t>
-  </si>
-  <si>
-    <t>+2O-2H-(CH2)5</t>
-  </si>
-  <si>
-    <t>R-HC=CH-C5H11 —&gt; R-COOH</t>
-  </si>
-  <si>
-    <t>+2O-2H-(CH2)8</t>
-  </si>
-  <si>
-    <t>-82.1510</t>
-  </si>
-  <si>
-    <t>R-HC=CH-C8H17 —&gt; R-COOH</t>
+    <t>R-HC=CH-CH2-CH=CH-C2H5—&gt;R-COOH</t>
+  </si>
+  <si>
+    <t>+2O-C-(CH2)8</t>
+  </si>
+  <si>
+    <t>-92.12279</t>
+  </si>
+  <si>
+    <t>R-HC=CH-CH2-CH=CH-C5H11—&gt;R-COOH</t>
+  </si>
+  <si>
+    <t>+2O-C-(CH2)11</t>
+  </si>
+  <si>
+    <t>-134.16482</t>
+  </si>
+  <si>
+    <t>R-HC=CH-CH2-CH=CH-C8H17—&gt;R-COOH</t>
   </si>
   <si>
     <t>-C6H7+O2</t>
@@ -1085,6 +1082,657 @@
     </r>
   </si>
   <si>
+    <t>+O-9C-14H</t>
+  </si>
+  <si>
+    <t>-106.1143</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-12C-20H</t>
+  </si>
+  <si>
+    <t>-148.1611</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-15C-26H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-12C-18H</t>
+  </si>
+  <si>
+    <t>-146.1455</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-15C-24H</t>
+  </si>
+  <si>
+    <t>-188.1923</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-18C-30H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-15C-22H</t>
+  </si>
+  <si>
+    <t>-186.1767</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-18C-28H</t>
+  </si>
+  <si>
+    <t>-228.2239</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-21C-34H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-17C-26H</t>
+  </si>
+  <si>
+    <t>-214.2079</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+O-21C-32H</t>
+  </si>
+  <si>
+    <t>-268.2547</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-CHO</t>
+    </r>
+  </si>
+  <si>
+    <t>+2O-24C-38H</t>
+  </si>
+  <si>
+    <t>-294.3075</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>—&gt;R-COOH</t>
+    </r>
+  </si>
+  <si>
     <t>+2O-6C-10H</t>
   </si>
   <si>
@@ -1250,10 +1898,10 @@
     </r>
   </si>
   <si>
-    <t>+O-9C-14H</t>
-  </si>
-  <si>
-    <t>-106.1143</t>
+    <t>+2O-9C-14H</t>
+  </si>
+  <si>
+    <t>-90.1194</t>
   </si>
   <si>
     <r>
@@ -1301,14 +1949,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-12C-20H</t>
-  </si>
-  <si>
-    <t>-148.1611</t>
+      <t>—&gt;R-COOH</t>
+    </r>
+  </si>
+  <si>
+    <t>+2O-12C-20H</t>
   </si>
   <si>
     <r>
@@ -1356,11 +2001,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-15C-26H</t>
+      <t>—&gt;R-COOH</t>
+    </r>
+  </si>
+  <si>
+    <t>+2O-15C-26H</t>
+  </si>
+  <si>
+    <t>-174.213</t>
   </si>
   <si>
     <r>
@@ -1408,24 +2056,24 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-9C-14H</t>
-  </si>
-  <si>
-    <t>-90.1194</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+      <t>—&gt;R-COOH</t>
+    </r>
+  </si>
+  <si>
+    <t>+2O-12C-18H</t>
+  </si>
+  <si>
+    <t>-130.1506</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -1467,17 +2115,17 @@
     </r>
   </si>
   <si>
-    <t>+2O-12C-20H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    <t>+2O-15C-24H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -1519,20 +2167,20 @@
     </r>
   </si>
   <si>
-    <t>+2O-15C-26H</t>
-  </si>
-  <si>
-    <t>-174.213</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    <t>+2O-18C-30H</t>
+  </si>
+  <si>
+    <t>-214.2442</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -1574,20 +2222,20 @@
     </r>
   </si>
   <si>
-    <t>+O-12C-18H</t>
-  </si>
-  <si>
-    <t>-146.1455</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+    <t>+2O-15C-22H</t>
+  </si>
+  <si>
+    <t>-170.1818</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -1625,24 +2273,21 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-15C-24H</t>
-  </si>
-  <si>
-    <t>-188.1923</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
+      <t>—&gt;R-COOH</t>
+    </r>
+  </si>
+  <si>
+    <t>+2O-18C-28H</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -1680,228 +2325,14 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-18C-30H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-12C-18H</t>
-  </si>
-  <si>
-    <t>-130.1506</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>—&gt;R-COOH</t>
     </r>
   </si>
   <si>
-    <t>+2O-15C-24H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-COOH</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-18C-30H</t>
-  </si>
-  <si>
-    <t>-214.2442</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-COOH</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-15C-22H</t>
-  </si>
-  <si>
-    <t>-186.1767</t>
+    <t>+2O-21C-34H</t>
+  </si>
+  <si>
+    <t>-254.2754</t>
   </si>
   <si>
     <r>
@@ -1912,440 +2343,6 @@
         <charset val="134"/>
       </rPr>
       <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-18C-28H</t>
-  </si>
-  <si>
-    <t>-228.2239</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-21C-34H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-15C-22H</t>
-  </si>
-  <si>
-    <t>-170.1818</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-COOH</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-18C-28H</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-COOH</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-21C-34H</t>
-  </si>
-  <si>
-    <t>-254.2754</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-COOH</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-17C-26H</t>
-  </si>
-  <si>
-    <t>-214.2079</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+O-21C-32H</t>
-  </si>
-  <si>
-    <t>-268.2547</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>—&gt;R-CHO</t>
-    </r>
-  </si>
-  <si>
-    <t>+2O-24C-38H</t>
-  </si>
-  <si>
-    <t>-294.3075</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>R-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-CH=CH-CH2-HC=CH-C</t>
     </r>
     <r>
       <rPr>
@@ -3617,8 +3614,8 @@
   <sheetPr/>
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6328,7 +6325,7 @@
       <c r="B54" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="5" t="s">
         <v>243</v>
       </c>
       <c r="D54" s="4" t="s">
@@ -6366,12 +6363,12 @@
     </row>
     <row r="55" spans="1:27">
       <c r="A55" s="4">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="5" t="s">
         <v>247</v>
       </c>
       <c r="D55" s="4" t="s">
@@ -6409,19 +6406,19 @@
     </row>
     <row r="56" spans="1:27">
       <c r="A56" s="4">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>250</v>
+      <c r="C56" s="5">
+        <v>-150.15919</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>244</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>172</v>
@@ -6452,19 +6449,19 @@
     </row>
     <row r="57" spans="1:27">
       <c r="A57" s="4">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B57" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="C57" s="5">
+        <v>-50.08076</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="E57" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>255</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>172</v>
@@ -6495,19 +6492,19 @@
     </row>
     <row r="58" spans="1:27">
       <c r="A58" s="4">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B58" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E58" s="13" t="s">
         <v>256</v>
-      </c>
-      <c r="C58" s="5">
-        <v>-40.1041</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>257</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>172</v>
@@ -6538,19 +6535,19 @@
     </row>
     <row r="59" spans="1:27">
       <c r="A59" s="4">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B59" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="D59" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="13" t="s">
         <v>259</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="E59" s="13" t="s">
-        <v>260</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>172</v>
@@ -6581,22 +6578,22 @@
     </row>
     <row r="60" ht="27" spans="1:27">
       <c r="A60" s="4">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B60" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C60" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="D60" s="11" t="s">
+      <c r="E60" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E60" s="13" t="s">
+      <c r="F60" s="2" t="s">
         <v>264</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>265</v>
       </c>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
@@ -6626,22 +6623,22 @@
     </row>
     <row r="61" ht="27" spans="1:27">
       <c r="A61" s="4">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B61" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="C61" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="D61" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
@@ -6671,22 +6668,22 @@
     </row>
     <row r="62" ht="27" spans="1:27">
       <c r="A62" s="4">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>185</v>
       </c>
       <c r="D62" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="F62" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
@@ -6714,22 +6711,22 @@
     </row>
     <row r="63" ht="27" spans="1:27">
       <c r="A63" s="4">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C63" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="D63" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D63" s="11" t="s">
+      <c r="E63" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="E63" s="13" t="s">
-        <v>278</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
@@ -6757,22 +6754,22 @@
     </row>
     <row r="64" ht="54" spans="1:27">
       <c r="A64" s="4">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B64" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C64" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="D64" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="E64" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4" t="s">
@@ -6810,22 +6807,22 @@
     </row>
     <row r="65" ht="40.5" spans="1:27">
       <c r="A65" s="4">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B65" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="C65" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="D65" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="E65" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>287</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>288</v>
       </c>
       <c r="G65" s="6" t="s">
         <v>32</v>
@@ -6855,19 +6852,19 @@
     </row>
     <row r="66" ht="15.75" spans="1:27">
       <c r="A66" s="4">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B66" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C66" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="D66" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D66" s="9" t="s">
+      <c r="E66" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="E66" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>172</v>
@@ -6898,19 +6895,19 @@
     </row>
     <row r="67" ht="15.75" spans="1:27">
       <c r="A67" s="4">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B67" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C67" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C67" s="16" t="s">
+      <c r="D67" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E67" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E67" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="F67" s="10" t="s">
         <v>172</v>
@@ -6941,19 +6938,19 @@
     </row>
     <row r="68" ht="15.75" spans="1:27">
       <c r="A68" s="4">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B68" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C68" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="D68" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E68" s="17" t="s">
         <v>297</v>
-      </c>
-      <c r="D68" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E68" s="17" t="s">
-        <v>298</v>
       </c>
       <c r="F68" s="10" t="s">
         <v>172</v>
@@ -6984,19 +6981,19 @@
     </row>
     <row r="69" ht="15.75" spans="1:27">
       <c r="A69" s="4">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B69" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="C69" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="C69" s="16" t="s">
+      <c r="D69" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E69" s="17" t="s">
         <v>300</v>
-      </c>
-      <c r="D69" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E69" s="17" t="s">
-        <v>302</v>
       </c>
       <c r="F69" s="10" t="s">
         <v>172</v>
@@ -7017,29 +7014,29 @@
       <c r="T69" s="9"/>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
-      <c r="W69" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X69" s="9"/>
+      <c r="W69" s="9"/>
+      <c r="X69" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y69" s="9"/>
       <c r="Z69" s="9"/>
       <c r="AA69" s="9"/>
     </row>
     <row r="70" ht="15.75" spans="1:27">
       <c r="A70" s="4">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B70" s="16" t="s">
+        <v>301</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>302</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E70" s="17" t="s">
         <v>303</v>
-      </c>
-      <c r="C70" s="9">
-        <v>-92.135</v>
-      </c>
-      <c r="D70" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>304</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>172</v>
@@ -7060,29 +7057,29 @@
       <c r="T70" s="9"/>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
-      <c r="W70" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X70" s="9"/>
+      <c r="W70" s="9"/>
+      <c r="X70" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y70" s="9"/>
       <c r="Z70" s="9"/>
       <c r="AA70" s="9"/>
     </row>
     <row r="71" ht="15.75" spans="1:27">
       <c r="A71" s="4">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B71" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="C71" s="9">
+        <v>-190.2079</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="17" t="s">
         <v>305</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="D71" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E71" s="17" t="s">
-        <v>307</v>
       </c>
       <c r="F71" s="10" t="s">
         <v>172</v>
@@ -7103,29 +7100,29 @@
       <c r="T71" s="9"/>
       <c r="U71" s="9"/>
       <c r="V71" s="9"/>
-      <c r="W71" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="X71" s="9"/>
+      <c r="W71" s="9"/>
+      <c r="X71" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y71" s="9"/>
       <c r="Z71" s="9"/>
       <c r="AA71" s="9"/>
     </row>
     <row r="72" ht="15.75" spans="1:27">
       <c r="A72" s="4">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B72" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E72" s="17" t="s">
         <v>308</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="D72" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E72" s="17" t="s">
-        <v>310</v>
       </c>
       <c r="F72" s="10" t="s">
         <v>172</v>
@@ -7147,28 +7144,28 @@
       <c r="U72" s="9"/>
       <c r="V72" s="9"/>
       <c r="W72" s="9"/>
-      <c r="X72" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y72" s="9"/>
+      <c r="X72" s="9"/>
+      <c r="Y72" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z72" s="9"/>
       <c r="AA72" s="9"/>
     </row>
     <row r="73" ht="15.75" spans="1:27">
       <c r="A73" s="4">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B73" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E73" s="17" t="s">
         <v>311</v>
-      </c>
-      <c r="C73" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="D73" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E73" s="17" t="s">
-        <v>313</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>172</v>
@@ -7190,28 +7187,28 @@
       <c r="U73" s="9"/>
       <c r="V73" s="9"/>
       <c r="W73" s="9"/>
-      <c r="X73" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z73" s="9"/>
       <c r="AA73" s="9"/>
     </row>
     <row r="74" ht="15.75" spans="1:27">
       <c r="A74" s="4">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B74" s="16" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C74" s="9">
-        <v>-190.2079</v>
+        <v>-230.2391</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E74" s="17" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F74" s="10" t="s">
         <v>172</v>
@@ -7233,28 +7230,28 @@
       <c r="U74" s="9"/>
       <c r="V74" s="9"/>
       <c r="W74" s="9"/>
-      <c r="X74" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Z74" s="9"/>
       <c r="AA74" s="9"/>
     </row>
-    <row r="75" ht="15.75" spans="1:27">
+    <row r="75" ht="29.25" spans="1:27">
       <c r="A75" s="4">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="B75" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E75" s="17" t="s">
         <v>316</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="D75" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E75" s="17" t="s">
-        <v>318</v>
       </c>
       <c r="F75" s="10" t="s">
         <v>172</v>
@@ -7276,28 +7273,28 @@
       <c r="U75" s="9"/>
       <c r="V75" s="9"/>
       <c r="W75" s="9"/>
-      <c r="X75" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X75" s="9"/>
       <c r="Y75" s="9"/>
-      <c r="Z75" s="9"/>
+      <c r="Z75" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="AA75" s="9"/>
     </row>
-    <row r="76" ht="15.75" spans="1:27">
+    <row r="76" ht="29.25" spans="1:27">
       <c r="A76" s="4">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="B76" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E76" s="17" t="s">
         <v>319</v>
-      </c>
-      <c r="C76" s="9">
-        <v>-132.1662</v>
-      </c>
-      <c r="D76" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E76" s="17" t="s">
-        <v>320</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>172</v>
@@ -7319,28 +7316,28 @@
       <c r="U76" s="9"/>
       <c r="V76" s="9"/>
       <c r="W76" s="9"/>
-      <c r="X76" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X76" s="9"/>
       <c r="Y76" s="9"/>
-      <c r="Z76" s="9"/>
+      <c r="Z76" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="AA76" s="9"/>
     </row>
-    <row r="77" ht="15.75" spans="1:27">
+    <row r="77" ht="29.25" spans="1:27">
       <c r="A77" s="4">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B77" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="C77" s="9">
+        <v>-270.2703</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E77" s="17" t="s">
         <v>321</v>
-      </c>
-      <c r="C77" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D77" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="17" t="s">
-        <v>323</v>
       </c>
       <c r="F77" s="10" t="s">
         <v>172</v>
@@ -7362,28 +7359,28 @@
       <c r="U77" s="9"/>
       <c r="V77" s="9"/>
       <c r="W77" s="9"/>
-      <c r="X77" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="X77" s="9"/>
       <c r="Y77" s="9"/>
-      <c r="Z77" s="9"/>
+      <c r="Z77" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="AA77" s="9"/>
     </row>
-    <row r="78" ht="15.75" spans="1:27">
+    <row r="78" ht="29.25" spans="1:27">
       <c r="A78" s="4">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="B78" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E78" s="17" t="s">
         <v>324</v>
-      </c>
-      <c r="C78" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="D78" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E78" s="17" t="s">
-        <v>326</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>172</v>
@@ -7406,27 +7403,27 @@
       <c r="V78" s="9"/>
       <c r="W78" s="9"/>
       <c r="X78" s="9"/>
-      <c r="Y78" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y78" s="9"/>
       <c r="Z78" s="9"/>
-      <c r="AA78" s="9"/>
-    </row>
-    <row r="79" ht="15.75" spans="1:27">
+      <c r="AA78" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" ht="29.25" spans="1:27">
       <c r="A79" s="4">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B79" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E79" s="17" t="s">
         <v>327</v>
-      </c>
-      <c r="C79" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="D79" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E79" s="17" t="s">
-        <v>329</v>
       </c>
       <c r="F79" s="10" t="s">
         <v>172</v>
@@ -7449,27 +7446,27 @@
       <c r="V79" s="9"/>
       <c r="W79" s="9"/>
       <c r="X79" s="9"/>
-      <c r="Y79" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y79" s="9"/>
       <c r="Z79" s="9"/>
-      <c r="AA79" s="9"/>
-    </row>
-    <row r="80" ht="15.75" spans="1:27">
+      <c r="AA79" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" ht="29.25" spans="1:27">
       <c r="A80" s="4">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="B80" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="E80" s="17" t="s">
         <v>330</v>
-      </c>
-      <c r="C80" s="9">
-        <v>-230.2391</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E80" s="17" t="s">
-        <v>331</v>
       </c>
       <c r="F80" s="10" t="s">
         <v>172</v>
@@ -7492,24 +7489,24 @@
       <c r="V80" s="9"/>
       <c r="W80" s="9"/>
       <c r="X80" s="9"/>
-      <c r="Y80" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y80" s="9"/>
       <c r="Z80" s="9"/>
-      <c r="AA80" s="9"/>
+      <c r="AA80" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="81" ht="15.75" spans="1:27">
       <c r="A81" s="4">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B81" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="C81" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="C81" s="16" t="s">
+      <c r="D81" s="9" t="s">
         <v>333</v>
-      </c>
-      <c r="D81" s="9" t="s">
-        <v>301</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>334</v>
@@ -7533,26 +7530,26 @@
       <c r="T81" s="9"/>
       <c r="U81" s="9"/>
       <c r="V81" s="9"/>
-      <c r="W81" s="9"/>
+      <c r="W81" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="X81" s="9"/>
-      <c r="Y81" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y81" s="9"/>
       <c r="Z81" s="9"/>
       <c r="AA81" s="9"/>
     </row>
     <row r="82" ht="15.75" spans="1:27">
       <c r="A82" s="4">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="B82" s="16" t="s">
         <v>335</v>
       </c>
       <c r="C82" s="9">
-        <v>-172.1974</v>
+        <v>-92.135</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>336</v>
@@ -7576,17 +7573,17 @@
       <c r="T82" s="9"/>
       <c r="U82" s="9"/>
       <c r="V82" s="9"/>
-      <c r="W82" s="9"/>
+      <c r="W82" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="X82" s="9"/>
-      <c r="Y82" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y82" s="9"/>
       <c r="Z82" s="9"/>
       <c r="AA82" s="9"/>
     </row>
     <row r="83" ht="15.75" spans="1:27">
       <c r="A83" s="4">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="B83" s="16" t="s">
         <v>337</v>
@@ -7595,7 +7592,7 @@
         <v>338</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E83" s="17" t="s">
         <v>339</v>
@@ -7619,17 +7616,17 @@
       <c r="T83" s="9"/>
       <c r="U83" s="9"/>
       <c r="V83" s="9"/>
-      <c r="W83" s="9"/>
+      <c r="W83" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="X83" s="9"/>
-      <c r="Y83" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y83" s="9"/>
       <c r="Z83" s="9"/>
       <c r="AA83" s="9"/>
     </row>
-    <row r="84" ht="29.25" spans="1:27">
+    <row r="84" ht="15.75" spans="1:27">
       <c r="A84" s="4">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>340</v>
@@ -7638,7 +7635,7 @@
         <v>341</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="E84" s="17" t="s">
         <v>342</v>
@@ -7663,28 +7660,28 @@
       <c r="U84" s="9"/>
       <c r="V84" s="9"/>
       <c r="W84" s="9"/>
-      <c r="X84" s="9"/>
+      <c r="X84" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y84" s="9"/>
-      <c r="Z84" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z84" s="9"/>
       <c r="AA84" s="9"/>
     </row>
-    <row r="85" ht="29.25" spans="1:27">
+    <row r="85" ht="15.75" spans="1:27">
       <c r="A85" s="4">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="B85" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="C85" s="16" t="s">
+      <c r="C85" s="9">
+        <v>-132.1662</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E85" s="17" t="s">
         <v>344</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>345</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>172</v>
@@ -7706,25 +7703,25 @@
       <c r="U85" s="9"/>
       <c r="V85" s="9"/>
       <c r="W85" s="9"/>
-      <c r="X85" s="9"/>
+      <c r="X85" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y85" s="9"/>
-      <c r="Z85" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z85" s="9"/>
       <c r="AA85" s="9"/>
     </row>
-    <row r="86" ht="29.25" spans="1:27">
+    <row r="86" ht="15.75" spans="1:27">
       <c r="A86" s="4">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="B86" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="C86" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="C86" s="9">
-        <v>-270.2703</v>
-      </c>
       <c r="D86" s="9" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="E86" s="17" t="s">
         <v>347</v>
@@ -7749,16 +7746,16 @@
       <c r="U86" s="9"/>
       <c r="V86" s="9"/>
       <c r="W86" s="9"/>
-      <c r="X86" s="9"/>
+      <c r="X86" s="9" t="s">
+        <v>32</v>
+      </c>
       <c r="Y86" s="9"/>
-      <c r="Z86" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z86" s="9"/>
       <c r="AA86" s="9"/>
     </row>
-    <row r="87" ht="29.25" spans="1:27">
+    <row r="87" ht="15.75" spans="1:27">
       <c r="A87" s="4">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="B87" s="16" t="s">
         <v>348</v>
@@ -7767,7 +7764,7 @@
         <v>349</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E87" s="17" t="s">
         <v>350</v>
@@ -7793,24 +7790,24 @@
       <c r="V87" s="9"/>
       <c r="W87" s="9"/>
       <c r="X87" s="9"/>
-      <c r="Y87" s="9"/>
-      <c r="Z87" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y87" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z87" s="9"/>
       <c r="AA87" s="9"/>
     </row>
-    <row r="88" ht="29.25" spans="1:27">
+    <row r="88" ht="15.75" spans="1:27">
       <c r="A88" s="4">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="B88" s="16" t="s">
         <v>351</v>
       </c>
       <c r="C88" s="9">
-        <v>-212.229</v>
+        <v>-172.1974</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E88" s="17" t="s">
         <v>352</v>
@@ -7836,15 +7833,15 @@
       <c r="V88" s="9"/>
       <c r="W88" s="9"/>
       <c r="X88" s="9"/>
-      <c r="Y88" s="9"/>
-      <c r="Z88" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y88" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z88" s="9"/>
       <c r="AA88" s="9"/>
     </row>
-    <row r="89" ht="29.25" spans="1:27">
+    <row r="89" ht="15.75" spans="1:27">
       <c r="A89" s="4">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B89" s="16" t="s">
         <v>353</v>
@@ -7853,7 +7850,7 @@
         <v>354</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E89" s="17" t="s">
         <v>355</v>
@@ -7879,15 +7876,15 @@
       <c r="V89" s="9"/>
       <c r="W89" s="9"/>
       <c r="X89" s="9"/>
-      <c r="Y89" s="9"/>
-      <c r="Z89" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y89" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z89" s="9"/>
       <c r="AA89" s="9"/>
     </row>
     <row r="90" ht="29.25" spans="1:27">
       <c r="A90" s="4">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="B90" s="16" t="s">
         <v>356</v>
@@ -7896,7 +7893,7 @@
         <v>357</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>291</v>
+        <v>333</v>
       </c>
       <c r="E90" s="17" t="s">
         <v>358</v>
@@ -7923,26 +7920,26 @@
       <c r="W90" s="9"/>
       <c r="X90" s="9"/>
       <c r="Y90" s="9"/>
-      <c r="Z90" s="9"/>
-      <c r="AA90" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z90" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA90" s="9"/>
     </row>
     <row r="91" ht="29.25" spans="1:27">
       <c r="A91" s="4">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B91" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="C91" s="16" t="s">
+      <c r="C91" s="9">
+        <v>-212.229</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E91" s="17" t="s">
         <v>360</v>
-      </c>
-      <c r="D91" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E91" s="17" t="s">
-        <v>361</v>
       </c>
       <c r="F91" s="10" t="s">
         <v>172</v>
@@ -7966,26 +7963,26 @@
       <c r="W91" s="9"/>
       <c r="X91" s="9"/>
       <c r="Y91" s="9"/>
-      <c r="Z91" s="9"/>
-      <c r="AA91" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z91" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA91" s="9"/>
     </row>
     <row r="92" ht="29.25" spans="1:27">
       <c r="A92" s="4">
-        <v>91</v>
+        <v>62</v>
       </c>
       <c r="B92" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C92" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="D92" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E92" s="17" t="s">
         <v>363</v>
-      </c>
-      <c r="D92" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="E92" s="17" t="s">
-        <v>364</v>
       </c>
       <c r="F92" s="10" t="s">
         <v>172</v>
@@ -8009,26 +8006,26 @@
       <c r="W92" s="9"/>
       <c r="X92" s="9"/>
       <c r="Y92" s="9"/>
-      <c r="Z92" s="9"/>
-      <c r="AA92" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z92" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA92" s="9"/>
     </row>
     <row r="93" ht="29.25" spans="1:27">
       <c r="A93" s="4">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="B93" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="D93" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="E93" s="17" t="s">
         <v>366</v>
-      </c>
-      <c r="D93" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="E93" s="17" t="s">
-        <v>367</v>
       </c>
       <c r="F93" s="10" t="s">
         <v>172</v>
@@ -8059,19 +8056,19 @@
     </row>
     <row r="94" ht="29.25" spans="1:27">
       <c r="A94" s="4">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C94" s="9">
         <v>-252.2605</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E94" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>172</v>
@@ -8102,19 +8099,19 @@
     </row>
     <row r="95" ht="29.25" spans="1:27">
       <c r="A95" s="4">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C95" s="9">
         <v>-310.3024</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="E95" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F95" s="10" t="s">
         <v>172</v>
